--- a/docs/rutinas y actividades.xlsx
+++ b/docs/rutinas y actividades.xlsx
@@ -651,7 +651,7 @@
   <dimension ref="C2:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
